--- a/biology/Médecine/Nadolol/Nadolol.xlsx
+++ b/biology/Médecine/Nadolol/Nadolol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le nadolol est un médicament de la famille des bêta-bloquants non sélectif, utilisé pour traiter l'hypertension artérielle, l'angor (ou angine de poitrine) et la fibrillation atriale[2],[3]. Il a également été utilisé pour prévenir les migraines et les complications de la cirrhose[4],[5]. Il est pris par voie orale[4].
+Le nadolol est un médicament de la famille des bêta-bloquants non sélectif, utilisé pour traiter l'hypertension artérielle, l'angor (ou angine de poitrine) et la fibrillation atriale,. Il a également été utilisé pour prévenir les migraines et les complications de la cirrhose,. Il est pris par voie orale.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires les plus courants sont la nausée et la fatigue[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires les plus courants sont la nausée et la fatigue.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nadolol est un mélange de stéréoisomères polaire et hydrophile, avec une faible lipophilie[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nadolol est un mélange de stéréoisomères polaire et hydrophile, avec une faible lipophilie.
 </t>
         </is>
       </c>
